--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -387,10 +387,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At this point, we do not have this functionality implemented, at it will just show a blank page. CB</t>
+    <t xml:space="preserve">Did fail, fixed and passes as of 03/21/2024. CB</t>
   </si>
   <si>
     <r>
@@ -648,7 +645,7 @@
     <t xml:space="preserve">GIVEN I click on a need that does not exist WHEN I am a user, I should be brought to a page that says that the item it not found and be returned at 404.</t>
   </si>
   <si>
-    <t xml:space="preserve">Currently, if you go to a detail page that does not exist, it just brings the user to a blank page. There should be a message here telling the user the item was not found, and an option to go back. CB</t>
+    <t xml:space="preserve">Failed previously, but fixed as of 03/21/2024. CB</t>
   </si>
   <si>
     <t xml:space="preserve">As a admin I want to be able to login so that I can add, edit, or remove items from the cupboard.</t>
@@ -666,7 +663,7 @@
     <t xml:space="preserve">GIVEN that I log in as admin, WHEN I edit an item, THEN it should be reflected in the cupboard.</t>
   </si>
   <si>
-    <t xml:space="preserve">Currently, there is no way to edit an item. You would have to remove then add it again. We will add this feature.</t>
+    <t xml:space="preserve">Failed previously because we did not implement this yet, but works as of 03/20/2024. CB</t>
   </si>
 </sst>
 </file>
@@ -1197,10 +1194,10 @@
   </sheetPr>
   <dimension ref="A1:F590"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C5" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topRight" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1270,10 +1267,10 @@
         <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="12"/>
@@ -1281,7 +1278,7 @@
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>13</v>
@@ -1295,7 +1292,7 @@
     <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>13</v>
@@ -1315,10 +1312,10 @@
     </row>
     <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>13</v>
@@ -1332,13 +1329,13 @@
     <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="12"/>
@@ -1346,7 +1343,7 @@
     <row r="10" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>13</v>
@@ -1367,16 +1364,16 @@
     </row>
     <row r="12" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="12"/>
@@ -1390,10 +1387,10 @@
     </row>
     <row r="14" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>13</v>
@@ -1407,7 +1404,7 @@
     <row r="15" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9"/>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>13</v>
@@ -1427,10 +1424,10 @@
     </row>
     <row r="17" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>13</v>
@@ -1444,13 +1441,13 @@
     <row r="18" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13"/>
       <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="12"/>
@@ -1464,10 +1461,10 @@
     </row>
     <row r="20" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>37</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>13</v>
@@ -1480,7 +1477,7 @@
     </row>
     <row r="21" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>13</v>
@@ -1493,7 +1490,7 @@
     </row>
     <row r="22" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>13</v>
@@ -1506,13 +1503,13 @@
     </row>
     <row r="23" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="12"/>
